--- a/config_debug/fish_3d_yutu_gd_boss.xlsx
+++ b/config_debug/fish_3d_yutu_gd_boss.xlsx
@@ -125,23 +125,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>11004,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>240,540,840,1140,1740,2040,2340,2640,2940,3240,3540,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60,260,460,660,860,1060,1260,1460,1660,1860,2060,2260,2460,2660,2860,3060,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11002,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>11003,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11002,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11004,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>240,540,840,1140,1740,2040,2340,2640,2940,3240,3540,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60,260,460,660,860,1060,1260,1460,1660,1860,2060,2260,2460,2660,2860,3060,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -529,9 +529,9 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -588,7 +588,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>11</v>
@@ -741,13 +741,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="8">
@@ -767,13 +767,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="8">

--- a/config_debug/fish_3d_yutu_gd_boss.xlsx
+++ b/config_debug/fish_3d_yutu_gd_boss.xlsx
@@ -531,7 +531,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -696,12 +696,8 @@
         <v>25</v>
       </c>
       <c r="G5" s="4"/>
-      <c r="H5" s="8">
-        <v>4</v>
-      </c>
-      <c r="I5" s="4">
-        <v>80</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="4"/>
       <c r="J5" s="4" t="s">
         <v>7</v>
       </c>
@@ -726,12 +722,8 @@
         <v>26</v>
       </c>
       <c r="G6" s="4"/>
-      <c r="H6" s="8">
-        <v>5</v>
-      </c>
-      <c r="I6" s="4">
-        <v>80</v>
-      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
@@ -750,12 +742,8 @@
         <v>29</v>
       </c>
       <c r="G7" s="4"/>
-      <c r="H7" s="8">
-        <v>6</v>
-      </c>
-      <c r="I7" s="4">
-        <v>80</v>
-      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="8"/>
     </row>
@@ -776,12 +764,8 @@
         <v>30</v>
       </c>
       <c r="G8" s="4"/>
-      <c r="H8" s="8">
-        <v>7</v>
-      </c>
-      <c r="I8" s="4">
-        <v>80</v>
-      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C9" s="4"/>
